--- a/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
+++ b/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\08_課題演習（後半）\設計書\30_詳細設計\詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\02_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226DF03-415C-4D3E-8D5D-B6C43EABA168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E2AC9E-86B0-4CE0-B5E7-F501FC608DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
   <sheets>
     <sheet name="共通定義" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>詳細設計共通定義</t>
     <rPh sb="0" eb="4">
@@ -598,22 +598,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>条件指定で合計労働時間を取得</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="5" eb="11">
-      <t>ゴウケイロウドウジカン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -665,19 +649,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一つ一人作る</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>例）addCalender</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -699,6 +670,24 @@
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計労働時間を取得</t>
+    <rPh sb="0" eb="6">
+      <t>ゴウケイロウドウジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      (条件指定)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※上記以外は自由（担当者が個別に作成する）</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1084,7 +1073,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,6 +1197,30 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,57 +1281,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,26 +1298,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1988,16 +1980,16 @@
   <dimension ref="A1:CK84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.69921875" style="6"/>
+    <col min="1" max="16384" width="2.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:89" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2090,15 +2082,15 @@
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
     </row>
-    <row r="2" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2107,62 +2099,62 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="47" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="49" t="s">
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="51"/>
-    </row>
-    <row r="3" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="59"/>
+    </row>
+    <row r="3" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2203,24 +2195,24 @@
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
       <c r="AP3" s="21"/>
-      <c r="AQ3" s="52" t="s">
+      <c r="AQ3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="55">
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="63">
         <v>45447</v>
       </c>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="57"/>
-    </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="65"/>
+    </row>
+    <row r="4" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -2284,7 +2276,7 @@
       <c r="BA4" s="4"/>
       <c r="BB4" s="5"/>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2346,7 +2338,7 @@
       <c r="BA5" s="18"/>
       <c r="BB5" s="19"/>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A6" s="27"/>
       <c r="B6" s="22"/>
       <c r="L6" s="25"/>
@@ -2385,7 +2377,7 @@
       <c r="AQ6" s="22"/>
       <c r="BB6" s="25"/>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A7" s="27"/>
       <c r="B7" s="22"/>
       <c r="L7" s="25"/>
@@ -2396,31 +2388,31 @@
       <c r="AQ7" s="22"/>
       <c r="BB7" s="25"/>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A8" s="27"/>
       <c r="B8" s="22"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="67"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
       <c r="AP8" s="25"/>
       <c r="AQ8" s="22"/>
       <c r="BB8" s="25"/>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A9" s="27"/>
       <c r="B9" s="22"/>
       <c r="L9" s="25"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45"/>
       <c r="S9" s="30"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
@@ -2428,49 +2420,49 @@
       <c r="AQ9" s="22"/>
       <c r="BB9" s="25"/>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A10" s="27"/>
       <c r="B10" s="22"/>
       <c r="L10" s="25"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="61" t="s">
+      <c r="Q10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
       <c r="AP10" s="25"/>
       <c r="AQ10" s="22"/>
       <c r="BB10" s="25"/>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A11" s="27"/>
       <c r="B11" s="22"/>
       <c r="L11" s="25"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="61" t="s">
+      <c r="Q11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
       <c r="AP11" s="25"/>
       <c r="AQ11" s="22"/>
       <c r="BB11" s="25"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A12" s="27"/>
       <c r="B12" s="22"/>
       <c r="L12" s="25"/>
-      <c r="O12" s="61" t="s">
+      <c r="O12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
@@ -2479,7 +2471,7 @@
       <c r="AQ12" s="22"/>
       <c r="BB12" s="25"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="L13" s="25"/>
@@ -2516,7 +2508,7 @@
       <c r="AQ13" s="22"/>
       <c r="BB13" s="25"/>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="L14" s="25"/>
@@ -2555,18 +2547,18 @@
       <c r="AQ14" s="22"/>
       <c r="BB14" s="25"/>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="L15" s="25"/>
       <c r="M15" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP15" s="25"/>
       <c r="AQ15" s="22"/>
       <c r="BB15" s="25"/>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A16" s="27"/>
       <c r="B16" s="22"/>
       <c r="L16" s="25"/>
@@ -2577,7 +2569,7 @@
       <c r="AQ16" s="22"/>
       <c r="BB16" s="25"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A17" s="27"/>
       <c r="B17" s="22"/>
       <c r="L17" s="25"/>
@@ -2586,7 +2578,7 @@
       <c r="AQ17" s="22"/>
       <c r="BB17" s="25"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A18" s="27"/>
       <c r="B18" s="22"/>
       <c r="L18" s="25"/>
@@ -2602,7 +2594,7 @@
       <c r="AQ18" s="22"/>
       <c r="BB18" s="25"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A19" s="27"/>
       <c r="B19" s="22"/>
       <c r="L19" s="25"/>
@@ -2613,7 +2605,7 @@
       <c r="AQ19" s="22"/>
       <c r="BB19" s="25"/>
     </row>
-    <row r="20" spans="1:54" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:54" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="L20" s="25"/>
@@ -2628,7 +2620,7 @@
       <c r="AQ20" s="22"/>
       <c r="BB20" s="25"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="L21" s="25"/>
@@ -2643,7 +2635,7 @@
       <c r="AQ21" s="22"/>
       <c r="BB21" s="25"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="L22" s="25"/>
@@ -2658,7 +2650,7 @@
       <c r="AQ22" s="22"/>
       <c r="BB22" s="25"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="L23" s="25"/>
@@ -2673,7 +2665,7 @@
       <c r="AQ23" s="22"/>
       <c r="BB23" s="25"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="L24" s="25"/>
@@ -2688,7 +2680,7 @@
       <c r="AQ24" s="22"/>
       <c r="BB24" s="25"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="L25" s="25"/>
@@ -2703,7 +2695,7 @@
       <c r="AQ25" s="22"/>
       <c r="BB25" s="25"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="L26" s="25"/>
@@ -2718,7 +2710,7 @@
       <c r="AQ26" s="22"/>
       <c r="BB26" s="25"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="L27" s="25"/>
@@ -2727,7 +2719,7 @@
       <c r="AQ27" s="22"/>
       <c r="BB27" s="25"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="L28" s="25"/>
@@ -2741,7 +2733,7 @@
       <c r="AQ28" s="22"/>
       <c r="BB28" s="25"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="L29" s="25"/>
@@ -2755,7 +2747,7 @@
       <c r="AQ29" s="22"/>
       <c r="BB29" s="25"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="L30" s="25"/>
@@ -2770,7 +2762,7 @@
       <c r="AQ30" s="22"/>
       <c r="BB30" s="25"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="L31" s="25"/>
@@ -2785,7 +2777,7 @@
       <c r="AQ31" s="22"/>
       <c r="BB31" s="25"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="L32" s="25"/>
@@ -2800,7 +2792,7 @@
       <c r="AQ32" s="22"/>
       <c r="BB32" s="25"/>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="L33" s="25"/>
@@ -2822,7 +2814,7 @@
       <c r="AQ33" s="22"/>
       <c r="BB33" s="25"/>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="L34" s="25"/>
@@ -2859,7 +2851,7 @@
       <c r="AQ34" s="22"/>
       <c r="BB34" s="25"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A35" s="27"/>
       <c r="B35" s="22"/>
       <c r="L35" s="25"/>
@@ -2898,7 +2890,7 @@
       <c r="AQ35" s="22"/>
       <c r="BB35" s="25"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A36" s="27"/>
       <c r="B36" s="22"/>
       <c r="L36" s="25"/>
@@ -2909,7 +2901,7 @@
       <c r="AQ36" s="22"/>
       <c r="BB36" s="25"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A37" s="27"/>
       <c r="B37" s="22"/>
       <c r="L37" s="25"/>
@@ -2920,7 +2912,7 @@
       <c r="AQ37" s="22"/>
       <c r="BB37" s="25"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A38" s="27"/>
       <c r="B38" s="22"/>
       <c r="L38" s="25"/>
@@ -2931,7 +2923,7 @@
       <c r="AQ38" s="22"/>
       <c r="BB38" s="25"/>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A39" s="27"/>
       <c r="B39" s="22"/>
       <c r="L39" s="25"/>
@@ -2940,7 +2932,7 @@
       <c r="AQ39" s="22"/>
       <c r="BB39" s="25"/>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A40" s="27"/>
       <c r="B40" s="22"/>
       <c r="L40" s="25"/>
@@ -2956,7 +2948,7 @@
       <c r="AQ40" s="22"/>
       <c r="BB40" s="25"/>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A41" s="27"/>
       <c r="B41" s="22"/>
       <c r="L41" s="25"/>
@@ -2964,13 +2956,13 @@
         <v>14</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AP41" s="25"/>
       <c r="AQ41" s="22"/>
       <c r="BB41" s="25"/>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A42" s="27"/>
       <c r="B42" s="22"/>
       <c r="L42" s="25"/>
@@ -2981,7 +2973,7 @@
       <c r="AQ42" s="22"/>
       <c r="BB42" s="25"/>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A43" s="27"/>
       <c r="B43" s="22"/>
       <c r="L43" s="25"/>
@@ -2992,7 +2984,7 @@
       <c r="AQ43" s="22"/>
       <c r="BB43" s="25"/>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A44" s="27"/>
       <c r="B44" s="22"/>
       <c r="L44" s="25"/>
@@ -3001,22 +2993,22 @@
       <c r="AQ44" s="22"/>
       <c r="BB44" s="25"/>
     </row>
-    <row r="45" spans="1:54" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:54" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="27"/>
       <c r="B45" s="22"/>
       <c r="L45" s="25"/>
       <c r="M45" s="22"/>
       <c r="N45" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP45" s="25"/>
       <c r="AQ45" s="22"/>
       <c r="BB45" s="25"/>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A46" s="27"/>
       <c r="B46" s="22"/>
       <c r="L46" s="25"/>
@@ -3053,7 +3045,7 @@
       <c r="AQ46" s="22"/>
       <c r="BB46" s="25"/>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A47" s="27"/>
       <c r="B47" s="22"/>
       <c r="L47" s="25"/>
@@ -3092,19 +3084,19 @@
       <c r="AQ47" s="22"/>
       <c r="BB47" s="25"/>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A48" s="27"/>
       <c r="B48" s="22"/>
       <c r="L48" s="25"/>
-      <c r="M48" s="94" t="s">
-        <v>95</v>
+      <c r="M48" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="N48" s="39"/>
       <c r="AP48" s="25"/>
       <c r="AQ48" s="22"/>
       <c r="BB48" s="25"/>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A49" s="27"/>
       <c r="B49" s="22"/>
       <c r="L49" s="25"/>
@@ -3115,7 +3107,7 @@
       <c r="AQ49" s="22"/>
       <c r="BB49" s="25"/>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A50" s="27"/>
       <c r="B50" s="22"/>
       <c r="L50" s="25"/>
@@ -3126,7 +3118,7 @@
       <c r="AQ50" s="22"/>
       <c r="BB50" s="25"/>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A51" s="27"/>
       <c r="B51" s="22"/>
       <c r="L51" s="25"/>
@@ -3135,7 +3127,7 @@
       <c r="AQ51" s="22"/>
       <c r="BB51" s="25"/>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A52" s="27"/>
       <c r="B52" s="22"/>
       <c r="L52" s="25"/>
@@ -3154,7 +3146,7 @@
       <c r="AQ52" s="22"/>
       <c r="BB52" s="25"/>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A53" s="27"/>
       <c r="B53" s="22"/>
       <c r="L53" s="25"/>
@@ -3165,7 +3157,7 @@
       <c r="AQ53" s="22"/>
       <c r="BB53" s="25"/>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A54" s="27"/>
       <c r="B54" s="22"/>
       <c r="L54" s="25"/>
@@ -3176,7 +3168,7 @@
       <c r="AQ54" s="22"/>
       <c r="BB54" s="25"/>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A55" s="27"/>
       <c r="B55" s="22"/>
       <c r="L55" s="25"/>
@@ -3184,7 +3176,7 @@
       <c r="AQ55" s="22"/>
       <c r="BB55" s="25"/>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A56" s="27"/>
       <c r="B56" s="22"/>
       <c r="L56" s="25"/>
@@ -3221,7 +3213,7 @@
       <c r="AQ56" s="22"/>
       <c r="BB56" s="25"/>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A57" s="27"/>
       <c r="B57" s="22"/>
       <c r="L57" s="25"/>
@@ -3231,9 +3223,7 @@
       <c r="N57" s="34"/>
       <c r="O57" s="34"/>
       <c r="P57" s="34"/>
-      <c r="Q57" s="40" t="s">
-        <v>96</v>
-      </c>
+      <c r="Q57" s="40"/>
       <c r="R57" s="34"/>
       <c r="S57" s="34"/>
       <c r="T57" s="34"/>
@@ -3262,7 +3252,7 @@
       <c r="AQ57" s="22"/>
       <c r="BB57" s="25"/>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A58" s="27"/>
       <c r="B58" s="22"/>
       <c r="L58" s="25"/>
@@ -3273,7 +3263,7 @@
       <c r="AQ58" s="22"/>
       <c r="BB58" s="25"/>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A59" s="27"/>
       <c r="B59" s="22"/>
       <c r="L59" s="25"/>
@@ -3284,7 +3274,7 @@
       <c r="AQ59" s="22"/>
       <c r="BB59" s="25"/>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A60" s="27"/>
       <c r="B60" s="22"/>
       <c r="L60" s="25"/>
@@ -3295,7 +3285,7 @@
       <c r="AQ60" s="22"/>
       <c r="BB60" s="25"/>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A61" s="27"/>
       <c r="B61" s="22"/>
       <c r="L61" s="25"/>
@@ -3304,7 +3294,7 @@
       <c r="AQ61" s="22"/>
       <c r="BB61" s="25"/>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A62" s="27"/>
       <c r="B62" s="22"/>
       <c r="L62" s="38"/>
@@ -3322,7 +3312,7 @@
       <c r="AQ62" s="22"/>
       <c r="BB62" s="25"/>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A63" s="27"/>
       <c r="B63" s="22"/>
       <c r="L63" s="25"/>
@@ -3330,32 +3320,31 @@
       <c r="N63" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S63" s="6" t="s">
+      <c r="T63" s="6" t="s">
         <v>81</v>
       </c>
       <c r="AP63" s="25"/>
       <c r="AQ63" s="22"/>
       <c r="BB63" s="25"/>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A64" s="27"/>
       <c r="B64" s="22"/>
       <c r="L64" s="25"/>
       <c r="M64" s="22"/>
       <c r="N64" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S64" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T64" s="6" t="s">
         <v>85</v>
       </c>
       <c r="AC64" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AP64" s="25"/>
       <c r="AQ64" s="22"/>
       <c r="BB64" s="25"/>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A65" s="27"/>
       <c r="B65" s="22"/>
       <c r="L65" s="25"/>
@@ -3363,17 +3352,16 @@
       <c r="N65" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="S65" s="6" t="s">
+      <c r="T65" s="6" t="s">
         <v>86</v>
       </c>
       <c r="AC65" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AP65" s="25"/>
       <c r="AQ65" s="22"/>
       <c r="BB65" s="25"/>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A66" s="27"/>
       <c r="B66" s="22"/>
       <c r="L66" s="25"/>
@@ -3381,51 +3369,49 @@
       <c r="N66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="S66" s="6" t="s">
+      <c r="T66" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AP66" s="25"/>
       <c r="AQ66" s="22"/>
       <c r="BB66" s="25"/>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A67" s="27"/>
       <c r="B67" s="22"/>
-      <c r="J67" s="6" t="s">
+      <c r="M67" s="22"/>
+      <c r="N67" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P67" s="25"/>
+      <c r="T67" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L67" s="25"/>
-      <c r="S67" s="6" t="s">
+      <c r="AC67" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AC67" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP67" s="25"/>
       <c r="AQ67" s="22"/>
       <c r="BB67" s="25"/>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A68" s="27"/>
       <c r="B68" s="22"/>
       <c r="L68" s="25"/>
-      <c r="M68" s="31" t="s">
-        <v>12</v>
+      <c r="N68" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="AP68" s="25"/>
       <c r="AQ68" s="22"/>
       <c r="BB68" s="25"/>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A69" s="27"/>
       <c r="B69" s="22"/>
       <c r="L69" s="25"/>
-      <c r="M69" s="31"/>
       <c r="AP69" s="25"/>
       <c r="AQ69" s="22"/>
       <c r="BB69" s="25"/>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A70" s="27"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -3438,7 +3424,9 @@
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
       <c r="L70" s="26"/>
-      <c r="M70" s="23"/>
+      <c r="M70" s="95" t="s">
+        <v>100</v>
+      </c>
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
       <c r="P70" s="24"/>
@@ -3471,7 +3459,7 @@
       <c r="AQ70" s="22"/>
       <c r="BB70" s="25"/>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A71" s="27">
         <v>2</v>
       </c>
@@ -3496,7 +3484,7 @@
       <c r="BA71" s="18"/>
       <c r="BB71" s="19"/>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A72" s="28"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
@@ -3554,7 +3542,7 @@
       <c r="BA72" s="24"/>
       <c r="BB72" s="26"/>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -3610,7 +3598,7 @@
       <c r="BA73" s="14"/>
       <c r="BB73" s="15"/>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -3666,7 +3654,7 @@
       <c r="BA74" s="14"/>
       <c r="BB74" s="15"/>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -3722,7 +3710,7 @@
       <c r="BA75" s="14"/>
       <c r="BB75" s="15"/>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -3778,7 +3766,7 @@
       <c r="BA76" s="14"/>
       <c r="BB76" s="15"/>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A77" s="12"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -3834,7 +3822,7 @@
       <c r="BA77" s="14"/>
       <c r="BB77" s="15"/>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A78" s="12"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -3890,7 +3878,7 @@
       <c r="BA78" s="14"/>
       <c r="BB78" s="15"/>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A79" s="12"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -3946,7 +3934,7 @@
       <c r="BA79" s="14"/>
       <c r="BB79" s="15"/>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A80" s="12"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -4002,7 +3990,7 @@
       <c r="BA80" s="14"/>
       <c r="BB80" s="15"/>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -4058,7 +4046,7 @@
       <c r="BA81" s="14"/>
       <c r="BB81" s="15"/>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A82" s="12"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
@@ -4114,7 +4102,7 @@
       <c r="BA82" s="14"/>
       <c r="BB82" s="15"/>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A83" s="12"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14"/>
@@ -4170,7 +4158,7 @@
       <c r="BA83" s="14"/>
       <c r="BB83" s="15"/>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A84" s="12"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
@@ -4228,17 +4216,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="M8:Q8"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:BB2"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:BB3"/>
     <mergeCell ref="M2:AP2"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="M8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AV1">
@@ -4258,12 +4246,12 @@
       <selection activeCell="N4" sqref="N4:Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.69921875" style="2"/>
+    <col min="1" max="16384" width="2.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
@@ -4321,1260 +4309,1350 @@
       <c r="BA1" s="11"/>
       <c r="BB1" s="11"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="68" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="71" t="s">
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="71" t="s">
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="73"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="74">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="90"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="79">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75">
+      <c r="B3" s="79"/>
+      <c r="C3" s="91">
         <v>45447</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="79">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="86"/>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="79">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="90"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="90"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="90"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="90"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="90"/>
-      <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="90"/>
-      <c r="BB10" s="90"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="90"/>
-      <c r="BB12" s="90"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="90"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="90"/>
-      <c r="AU13" s="90"/>
-      <c r="AV13" s="90"/>
-      <c r="AW13" s="90"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="90"/>
-      <c r="BA13" s="90"/>
-      <c r="BB13" s="90"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="90"/>
-      <c r="AM14" s="90"/>
-      <c r="AN14" s="90"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="90"/>
-      <c r="AT14" s="90"/>
-      <c r="AU14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AW14" s="90"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="90"/>
-      <c r="AZ14" s="90"/>
-      <c r="BA14" s="90"/>
-      <c r="BB14" s="90"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="74">
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="90"/>
-      <c r="AM15" s="90"/>
-      <c r="AN15" s="90"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="90"/>
-      <c r="AU15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="90"/>
-      <c r="BA15" s="90"/>
-      <c r="BB15" s="90"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="90"/>
-      <c r="AL16" s="90"/>
-      <c r="AM16" s="90"/>
-      <c r="AN16" s="90"/>
-      <c r="AO16" s="90"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="90"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="90"/>
-      <c r="AT16" s="90"/>
-      <c r="AU16" s="90"/>
-      <c r="AV16" s="90"/>
-      <c r="AW16" s="90"/>
-      <c r="AX16" s="90"/>
-      <c r="AY16" s="90"/>
-      <c r="AZ16" s="90"/>
-      <c r="BA16" s="90"/>
-      <c r="BB16" s="90"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="74">
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="90"/>
-      <c r="AN17" s="90"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="90"/>
-      <c r="AT17" s="90"/>
-      <c r="AU17" s="90"/>
-      <c r="AV17" s="90"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="90"/>
-      <c r="BA17" s="90"/>
-      <c r="BB17" s="90"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="74">
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="88"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="88"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="88"/>
-      <c r="AX18" s="88"/>
-      <c r="AY18" s="88"/>
-      <c r="AZ18" s="88"/>
-      <c r="BA18" s="88"/>
-      <c r="BB18" s="89"/>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="74">
+      <c r="B18" s="79"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="77"/>
+      <c r="AT18" s="77"/>
+      <c r="AU18" s="77"/>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="77"/>
+      <c r="AY18" s="77"/>
+      <c r="AZ18" s="77"/>
+      <c r="BA18" s="77"/>
+      <c r="BB18" s="78"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="88"/>
-      <c r="AN19" s="88"/>
-      <c r="AO19" s="88"/>
-      <c r="AP19" s="88"/>
-      <c r="AQ19" s="88"/>
-      <c r="AR19" s="88"/>
-      <c r="AS19" s="88"/>
-      <c r="AT19" s="88"/>
-      <c r="AU19" s="88"/>
-      <c r="AV19" s="88"/>
-      <c r="AW19" s="88"/>
-      <c r="AX19" s="88"/>
-      <c r="AY19" s="88"/>
-      <c r="AZ19" s="88"/>
-      <c r="BA19" s="88"/>
-      <c r="BB19" s="89"/>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="B19" s="79"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="77"/>
+      <c r="AU19" s="77"/>
+      <c r="AV19" s="77"/>
+      <c r="AW19" s="77"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="77"/>
+      <c r="AZ19" s="77"/>
+      <c r="BA19" s="77"/>
+      <c r="BB19" s="78"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="88"/>
-      <c r="AQ20" s="88"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="88"/>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="88"/>
-      <c r="AV20" s="88"/>
-      <c r="AW20" s="88"/>
-      <c r="AX20" s="88"/>
-      <c r="AY20" s="88"/>
-      <c r="AZ20" s="88"/>
-      <c r="BA20" s="88"/>
-      <c r="BB20" s="89"/>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="74">
+      <c r="B20" s="79"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="77"/>
+      <c r="AZ20" s="77"/>
+      <c r="BA20" s="77"/>
+      <c r="BB20" s="78"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="88"/>
-      <c r="AN21" s="88"/>
-      <c r="AO21" s="88"/>
-      <c r="AP21" s="88"/>
-      <c r="AQ21" s="88"/>
-      <c r="AR21" s="88"/>
-      <c r="AS21" s="88"/>
-      <c r="AT21" s="88"/>
-      <c r="AU21" s="88"/>
-      <c r="AV21" s="88"/>
-      <c r="AW21" s="88"/>
-      <c r="AX21" s="88"/>
-      <c r="AY21" s="88"/>
-      <c r="AZ21" s="88"/>
-      <c r="BA21" s="88"/>
-      <c r="BB21" s="89"/>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="90">
+      <c r="B21" s="79"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="77"/>
+      <c r="BB21" s="78"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="88"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="88"/>
-      <c r="AQ22" s="88"/>
-      <c r="AR22" s="88"/>
-      <c r="AS22" s="88"/>
-      <c r="AT22" s="88"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="88"/>
-      <c r="AW22" s="88"/>
-      <c r="AX22" s="88"/>
-      <c r="AY22" s="88"/>
-      <c r="AZ22" s="88"/>
-      <c r="BA22" s="88"/>
-      <c r="BB22" s="89"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="77"/>
+      <c r="BB22" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -5590,96 +5668,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5688,6 +5676,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -5882,27 +5890,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4595B-C56E-4600-9012-18E22E685E1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC924686-D250-4F9F-A2BB-B8679E3B2C6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7689BB-0157-468B-8917-E2954308028B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5919,29 +5932,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC924686-D250-4F9F-A2BB-B8679E3B2C6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4595B-C56E-4600-9012-18E22E685E1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
+++ b/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\08_課題演習（後半）\設計書\30_詳細設計\詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\02_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226DF03-415C-4D3E-8D5D-B6C43EABA168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EDEF13-5A6B-47EB-8B55-52F83626DB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>詳細設計共通定義</t>
     <rPh sb="0" eb="4">
@@ -699,6 +699,14 @@
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1208,6 +1216,30 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,57 +1300,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,28 +1317,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1988,8 +1996,8 @@
   <dimension ref="A1:CK84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2091,14 +2099,14 @@
       <c r="CK1" s="1"/>
     </row>
     <row r="2" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2107,62 +2115,62 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="47" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="49" t="s">
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="51"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2203,22 +2211,22 @@
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
       <c r="AP3" s="21"/>
-      <c r="AQ3" s="52" t="s">
+      <c r="AQ3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="55">
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="63">
         <v>45447</v>
       </c>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="57"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="65"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
@@ -2400,13 +2408,13 @@
       <c r="A8" s="27"/>
       <c r="B8" s="22"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="67"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
       <c r="AP8" s="25"/>
       <c r="AQ8" s="22"/>
       <c r="BB8" s="25"/>
@@ -2416,11 +2424,11 @@
       <c r="B9" s="22"/>
       <c r="L9" s="25"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45"/>
       <c r="S9" s="30"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
@@ -2434,13 +2442,13 @@
       <c r="L10" s="25"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="61" t="s">
+      <c r="Q10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
       <c r="AP10" s="25"/>
       <c r="AQ10" s="22"/>
       <c r="BB10" s="25"/>
@@ -2451,13 +2459,13 @@
       <c r="L11" s="25"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="61" t="s">
+      <c r="Q11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
       <c r="AP11" s="25"/>
       <c r="AQ11" s="22"/>
       <c r="BB11" s="25"/>
@@ -2466,11 +2474,11 @@
       <c r="A12" s="27"/>
       <c r="B12" s="22"/>
       <c r="L12" s="25"/>
-      <c r="O12" s="61" t="s">
+      <c r="O12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
@@ -3096,7 +3104,7 @@
       <c r="A48" s="27"/>
       <c r="B48" s="22"/>
       <c r="L48" s="25"/>
-      <c r="M48" s="94" t="s">
+      <c r="M48" s="41" t="s">
         <v>95</v>
       </c>
       <c r="N48" s="39"/>
@@ -3383,6 +3391,12 @@
       </c>
       <c r="S66" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="U66" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V66" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="AP66" s="25"/>
       <c r="AQ66" s="22"/>
@@ -4228,17 +4242,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="M8:Q8"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:BB2"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:BB3"/>
     <mergeCell ref="M2:AP2"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="M8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AV1">
@@ -4322,1259 +4336,1349 @@
       <c r="BB1" s="11"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="68" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="71" t="s">
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="71" t="s">
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="73"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="90"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="74">
+      <c r="A3" s="79">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75">
+      <c r="B3" s="79"/>
+      <c r="C3" s="91">
         <v>45447</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78" t="s">
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="79">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="86"/>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
+      <c r="A5" s="79">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="90"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
+      <c r="A6" s="79">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
+      <c r="A7" s="79">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="A8" s="79">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="90"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
+      <c r="A9" s="79">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="90"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
+      <c r="A10" s="79">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="90"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="90"/>
-      <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="90"/>
-      <c r="BB10" s="90"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
+      <c r="A11" s="79">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="79">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="90"/>
-      <c r="BB12" s="90"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
+      <c r="A13" s="79">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="90"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="90"/>
-      <c r="AU13" s="90"/>
-      <c r="AV13" s="90"/>
-      <c r="AW13" s="90"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="90"/>
-      <c r="BA13" s="90"/>
-      <c r="BB13" s="90"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
+      <c r="A14" s="79">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="90"/>
-      <c r="AM14" s="90"/>
-      <c r="AN14" s="90"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="90"/>
-      <c r="AT14" s="90"/>
-      <c r="AU14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AW14" s="90"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="90"/>
-      <c r="AZ14" s="90"/>
-      <c r="BA14" s="90"/>
-      <c r="BB14" s="90"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="74">
+      <c r="A15" s="79">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="90"/>
-      <c r="AM15" s="90"/>
-      <c r="AN15" s="90"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="90"/>
-      <c r="AU15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="90"/>
-      <c r="BA15" s="90"/>
-      <c r="BB15" s="90"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="A16" s="79">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="90"/>
-      <c r="AL16" s="90"/>
-      <c r="AM16" s="90"/>
-      <c r="AN16" s="90"/>
-      <c r="AO16" s="90"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="90"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="90"/>
-      <c r="AT16" s="90"/>
-      <c r="AU16" s="90"/>
-      <c r="AV16" s="90"/>
-      <c r="AW16" s="90"/>
-      <c r="AX16" s="90"/>
-      <c r="AY16" s="90"/>
-      <c r="AZ16" s="90"/>
-      <c r="BA16" s="90"/>
-      <c r="BB16" s="90"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="74">
+      <c r="A17" s="79">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="90"/>
-      <c r="AN17" s="90"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="90"/>
-      <c r="AT17" s="90"/>
-      <c r="AU17" s="90"/>
-      <c r="AV17" s="90"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="90"/>
-      <c r="BA17" s="90"/>
-      <c r="BB17" s="90"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="74">
+      <c r="A18" s="79">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="88"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="88"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="88"/>
-      <c r="AX18" s="88"/>
-      <c r="AY18" s="88"/>
-      <c r="AZ18" s="88"/>
-      <c r="BA18" s="88"/>
-      <c r="BB18" s="89"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="77"/>
+      <c r="AT18" s="77"/>
+      <c r="AU18" s="77"/>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="77"/>
+      <c r="AY18" s="77"/>
+      <c r="AZ18" s="77"/>
+      <c r="BA18" s="77"/>
+      <c r="BB18" s="78"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="74">
+      <c r="A19" s="79">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="88"/>
-      <c r="AN19" s="88"/>
-      <c r="AO19" s="88"/>
-      <c r="AP19" s="88"/>
-      <c r="AQ19" s="88"/>
-      <c r="AR19" s="88"/>
-      <c r="AS19" s="88"/>
-      <c r="AT19" s="88"/>
-      <c r="AU19" s="88"/>
-      <c r="AV19" s="88"/>
-      <c r="AW19" s="88"/>
-      <c r="AX19" s="88"/>
-      <c r="AY19" s="88"/>
-      <c r="AZ19" s="88"/>
-      <c r="BA19" s="88"/>
-      <c r="BB19" s="89"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="77"/>
+      <c r="AU19" s="77"/>
+      <c r="AV19" s="77"/>
+      <c r="AW19" s="77"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="77"/>
+      <c r="AZ19" s="77"/>
+      <c r="BA19" s="77"/>
+      <c r="BB19" s="78"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="A20" s="79">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="88"/>
-      <c r="AQ20" s="88"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="88"/>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="88"/>
-      <c r="AV20" s="88"/>
-      <c r="AW20" s="88"/>
-      <c r="AX20" s="88"/>
-      <c r="AY20" s="88"/>
-      <c r="AZ20" s="88"/>
-      <c r="BA20" s="88"/>
-      <c r="BB20" s="89"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="77"/>
+      <c r="AZ20" s="77"/>
+      <c r="BA20" s="77"/>
+      <c r="BB20" s="78"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="74">
+      <c r="A21" s="79">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="88"/>
-      <c r="AN21" s="88"/>
-      <c r="AO21" s="88"/>
-      <c r="AP21" s="88"/>
-      <c r="AQ21" s="88"/>
-      <c r="AR21" s="88"/>
-      <c r="AS21" s="88"/>
-      <c r="AT21" s="88"/>
-      <c r="AU21" s="88"/>
-      <c r="AV21" s="88"/>
-      <c r="AW21" s="88"/>
-      <c r="AX21" s="88"/>
-      <c r="AY21" s="88"/>
-      <c r="AZ21" s="88"/>
-      <c r="BA21" s="88"/>
-      <c r="BB21" s="89"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="77"/>
+      <c r="BB21" s="78"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="90">
+      <c r="A22" s="69">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="88"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="88"/>
-      <c r="AQ22" s="88"/>
-      <c r="AR22" s="88"/>
-      <c r="AS22" s="88"/>
-      <c r="AT22" s="88"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="88"/>
-      <c r="AW22" s="88"/>
-      <c r="AX22" s="88"/>
-      <c r="AY22" s="88"/>
-      <c r="AZ22" s="88"/>
-      <c r="BA22" s="88"/>
-      <c r="BB22" s="89"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="77"/>
+      <c r="BB22" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -5590,96 +5694,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5688,6 +5702,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -5882,27 +5916,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4595B-C56E-4600-9012-18E22E685E1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC924686-D250-4F9F-A2BB-B8679E3B2C6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7689BB-0157-468B-8917-E2954308028B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5919,29 +5958,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC924686-D250-4F9F-A2BB-B8679E3B2C6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4595B-C56E-4600-9012-18E22E685E1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
+++ b/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\02_詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\02_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E2AC9E-86B0-4CE0-B5E7-F501FC608DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96291580-8BB2-498D-8746-E5151E692250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
   <sheets>
     <sheet name="共通定義" sheetId="1" r:id="rId1"/>
@@ -629,16 +629,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　controllerパッケージの配下に（画面名+Controller.java）で画面ごとにファイルを作成する。</t>
-    <rPh sb="23" eb="24">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　beansパッケージに配下、テーブル名+"Beans.java"とする</t>
     <rPh sb="12" eb="14">
       <t>ハイカ</t>
@@ -688,6 +678,16 @@
   </si>
   <si>
     <t>※上記以外は自由（担当者が個別に作成する）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　controllerパッケージの配下に（機能名+Controller.java）で機能ごとにファイルを作成する。</t>
+    <rPh sb="21" eb="24">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キノウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1200,6 +1200,69 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1221,74 +1284,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,49 +1323,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1980,16 +1980,16 @@
   <dimension ref="A1:CK84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S62" sqref="S62"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="6"/>
+    <col min="1" max="16384" width="2.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:89" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2082,15 +2082,15 @@
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
     </row>
-    <row r="2" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2099,62 +2099,62 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="55" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="57" t="s">
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="59"/>
-    </row>
-    <row r="3" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="53"/>
+    </row>
+    <row r="3" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2195,24 +2195,24 @@
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
       <c r="AP3" s="21"/>
-      <c r="AQ3" s="60" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="63">
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="57">
         <v>45447</v>
       </c>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="65"/>
-    </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="59"/>
+    </row>
+    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="BA4" s="4"/>
       <c r="BB4" s="5"/>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="BA5" s="18"/>
       <c r="BB5" s="19"/>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A6" s="27"/>
       <c r="B6" s="22"/>
       <c r="L6" s="25"/>
@@ -2377,7 +2377,7 @@
       <c r="AQ6" s="22"/>
       <c r="BB6" s="25"/>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A7" s="27"/>
       <c r="B7" s="22"/>
       <c r="L7" s="25"/>
@@ -2388,31 +2388,31 @@
       <c r="AQ7" s="22"/>
       <c r="BB7" s="25"/>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A8" s="27"/>
       <c r="B8" s="22"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="69"/>
       <c r="AP8" s="25"/>
       <c r="AQ8" s="22"/>
       <c r="BB8" s="25"/>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A9" s="27"/>
       <c r="B9" s="22"/>
       <c r="L9" s="25"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="43" t="s">
+      <c r="P9" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="45"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="66"/>
       <c r="S9" s="30"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
@@ -2420,49 +2420,49 @@
       <c r="AQ9" s="22"/>
       <c r="BB9" s="25"/>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A10" s="27"/>
       <c r="B10" s="22"/>
       <c r="L10" s="25"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
       <c r="AP10" s="25"/>
       <c r="AQ10" s="22"/>
       <c r="BB10" s="25"/>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="22"/>
       <c r="L11" s="25"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="42" t="s">
+      <c r="Q11" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
       <c r="AP11" s="25"/>
       <c r="AQ11" s="22"/>
       <c r="BB11" s="25"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A12" s="27"/>
       <c r="B12" s="22"/>
       <c r="L12" s="25"/>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
@@ -2471,7 +2471,7 @@
       <c r="AQ12" s="22"/>
       <c r="BB12" s="25"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="L13" s="25"/>
@@ -2508,7 +2508,7 @@
       <c r="AQ13" s="22"/>
       <c r="BB13" s="25"/>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="L14" s="25"/>
@@ -2547,18 +2547,18 @@
       <c r="AQ14" s="22"/>
       <c r="BB14" s="25"/>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="L15" s="25"/>
       <c r="M15" s="22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AP15" s="25"/>
       <c r="AQ15" s="22"/>
       <c r="BB15" s="25"/>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
       <c r="B16" s="22"/>
       <c r="L16" s="25"/>
@@ -2569,7 +2569,7 @@
       <c r="AQ16" s="22"/>
       <c r="BB16" s="25"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A17" s="27"/>
       <c r="B17" s="22"/>
       <c r="L17" s="25"/>
@@ -2578,7 +2578,7 @@
       <c r="AQ17" s="22"/>
       <c r="BB17" s="25"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A18" s="27"/>
       <c r="B18" s="22"/>
       <c r="L18" s="25"/>
@@ -2594,7 +2594,7 @@
       <c r="AQ18" s="22"/>
       <c r="BB18" s="25"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A19" s="27"/>
       <c r="B19" s="22"/>
       <c r="L19" s="25"/>
@@ -2605,7 +2605,7 @@
       <c r="AQ19" s="22"/>
       <c r="BB19" s="25"/>
     </row>
-    <row r="20" spans="1:54" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:54" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="L20" s="25"/>
@@ -2620,7 +2620,7 @@
       <c r="AQ20" s="22"/>
       <c r="BB20" s="25"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="L21" s="25"/>
@@ -2635,7 +2635,7 @@
       <c r="AQ21" s="22"/>
       <c r="BB21" s="25"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="L22" s="25"/>
@@ -2650,7 +2650,7 @@
       <c r="AQ22" s="22"/>
       <c r="BB22" s="25"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="L23" s="25"/>
@@ -2665,7 +2665,7 @@
       <c r="AQ23" s="22"/>
       <c r="BB23" s="25"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="L24" s="25"/>
@@ -2680,7 +2680,7 @@
       <c r="AQ24" s="22"/>
       <c r="BB24" s="25"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="L25" s="25"/>
@@ -2695,7 +2695,7 @@
       <c r="AQ25" s="22"/>
       <c r="BB25" s="25"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="L26" s="25"/>
@@ -2710,7 +2710,7 @@
       <c r="AQ26" s="22"/>
       <c r="BB26" s="25"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="L27" s="25"/>
@@ -2719,7 +2719,7 @@
       <c r="AQ27" s="22"/>
       <c r="BB27" s="25"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="L28" s="25"/>
@@ -2733,7 +2733,7 @@
       <c r="AQ28" s="22"/>
       <c r="BB28" s="25"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="L29" s="25"/>
@@ -2747,7 +2747,7 @@
       <c r="AQ29" s="22"/>
       <c r="BB29" s="25"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="L30" s="25"/>
@@ -2762,7 +2762,7 @@
       <c r="AQ30" s="22"/>
       <c r="BB30" s="25"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="L31" s="25"/>
@@ -2777,7 +2777,7 @@
       <c r="AQ31" s="22"/>
       <c r="BB31" s="25"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="L32" s="25"/>
@@ -2792,7 +2792,7 @@
       <c r="AQ32" s="22"/>
       <c r="BB32" s="25"/>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="L33" s="25"/>
@@ -2814,7 +2814,7 @@
       <c r="AQ33" s="22"/>
       <c r="BB33" s="25"/>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="L34" s="25"/>
@@ -2851,7 +2851,7 @@
       <c r="AQ34" s="22"/>
       <c r="BB34" s="25"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A35" s="27"/>
       <c r="B35" s="22"/>
       <c r="L35" s="25"/>
@@ -2890,7 +2890,7 @@
       <c r="AQ35" s="22"/>
       <c r="BB35" s="25"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A36" s="27"/>
       <c r="B36" s="22"/>
       <c r="L36" s="25"/>
@@ -2901,7 +2901,7 @@
       <c r="AQ36" s="22"/>
       <c r="BB36" s="25"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A37" s="27"/>
       <c r="B37" s="22"/>
       <c r="L37" s="25"/>
@@ -2912,7 +2912,7 @@
       <c r="AQ37" s="22"/>
       <c r="BB37" s="25"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A38" s="27"/>
       <c r="B38" s="22"/>
       <c r="L38" s="25"/>
@@ -2923,7 +2923,7 @@
       <c r="AQ38" s="22"/>
       <c r="BB38" s="25"/>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A39" s="27"/>
       <c r="B39" s="22"/>
       <c r="L39" s="25"/>
@@ -2932,7 +2932,7 @@
       <c r="AQ39" s="22"/>
       <c r="BB39" s="25"/>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A40" s="27"/>
       <c r="B40" s="22"/>
       <c r="L40" s="25"/>
@@ -2948,7 +2948,7 @@
       <c r="AQ40" s="22"/>
       <c r="BB40" s="25"/>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A41" s="27"/>
       <c r="B41" s="22"/>
       <c r="L41" s="25"/>
@@ -2956,13 +2956,13 @@
         <v>14</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP41" s="25"/>
       <c r="AQ41" s="22"/>
       <c r="BB41" s="25"/>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A42" s="27"/>
       <c r="B42" s="22"/>
       <c r="L42" s="25"/>
@@ -2973,7 +2973,7 @@
       <c r="AQ42" s="22"/>
       <c r="BB42" s="25"/>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A43" s="27"/>
       <c r="B43" s="22"/>
       <c r="L43" s="25"/>
@@ -2984,7 +2984,7 @@
       <c r="AQ43" s="22"/>
       <c r="BB43" s="25"/>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A44" s="27"/>
       <c r="B44" s="22"/>
       <c r="L44" s="25"/>
@@ -2993,22 +2993,22 @@
       <c r="AQ44" s="22"/>
       <c r="BB44" s="25"/>
     </row>
-    <row r="45" spans="1:54" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:54" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="27"/>
       <c r="B45" s="22"/>
       <c r="L45" s="25"/>
       <c r="M45" s="22"/>
       <c r="N45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA45" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="AP45" s="25"/>
       <c r="AQ45" s="22"/>
       <c r="BB45" s="25"/>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A46" s="27"/>
       <c r="B46" s="22"/>
       <c r="L46" s="25"/>
@@ -3045,7 +3045,7 @@
       <c r="AQ46" s="22"/>
       <c r="BB46" s="25"/>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A47" s="27"/>
       <c r="B47" s="22"/>
       <c r="L47" s="25"/>
@@ -3084,19 +3084,19 @@
       <c r="AQ47" s="22"/>
       <c r="BB47" s="25"/>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A48" s="27"/>
       <c r="B48" s="22"/>
       <c r="L48" s="25"/>
       <c r="M48" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N48" s="39"/>
       <c r="AP48" s="25"/>
       <c r="AQ48" s="22"/>
       <c r="BB48" s="25"/>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A49" s="27"/>
       <c r="B49" s="22"/>
       <c r="L49" s="25"/>
@@ -3107,7 +3107,7 @@
       <c r="AQ49" s="22"/>
       <c r="BB49" s="25"/>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A50" s="27"/>
       <c r="B50" s="22"/>
       <c r="L50" s="25"/>
@@ -3118,7 +3118,7 @@
       <c r="AQ50" s="22"/>
       <c r="BB50" s="25"/>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A51" s="27"/>
       <c r="B51" s="22"/>
       <c r="L51" s="25"/>
@@ -3127,7 +3127,7 @@
       <c r="AQ51" s="22"/>
       <c r="BB51" s="25"/>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A52" s="27"/>
       <c r="B52" s="22"/>
       <c r="L52" s="25"/>
@@ -3146,7 +3146,7 @@
       <c r="AQ52" s="22"/>
       <c r="BB52" s="25"/>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A53" s="27"/>
       <c r="B53" s="22"/>
       <c r="L53" s="25"/>
@@ -3157,7 +3157,7 @@
       <c r="AQ53" s="22"/>
       <c r="BB53" s="25"/>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A54" s="27"/>
       <c r="B54" s="22"/>
       <c r="L54" s="25"/>
@@ -3168,7 +3168,7 @@
       <c r="AQ54" s="22"/>
       <c r="BB54" s="25"/>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A55" s="27"/>
       <c r="B55" s="22"/>
       <c r="L55" s="25"/>
@@ -3176,7 +3176,7 @@
       <c r="AQ55" s="22"/>
       <c r="BB55" s="25"/>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A56" s="27"/>
       <c r="B56" s="22"/>
       <c r="L56" s="25"/>
@@ -3213,7 +3213,7 @@
       <c r="AQ56" s="22"/>
       <c r="BB56" s="25"/>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A57" s="27"/>
       <c r="B57" s="22"/>
       <c r="L57" s="25"/>
@@ -3252,7 +3252,7 @@
       <c r="AQ57" s="22"/>
       <c r="BB57" s="25"/>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A58" s="27"/>
       <c r="B58" s="22"/>
       <c r="L58" s="25"/>
@@ -3263,7 +3263,7 @@
       <c r="AQ58" s="22"/>
       <c r="BB58" s="25"/>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A59" s="27"/>
       <c r="B59" s="22"/>
       <c r="L59" s="25"/>
@@ -3274,7 +3274,7 @@
       <c r="AQ59" s="22"/>
       <c r="BB59" s="25"/>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A60" s="27"/>
       <c r="B60" s="22"/>
       <c r="L60" s="25"/>
@@ -3285,7 +3285,7 @@
       <c r="AQ60" s="22"/>
       <c r="BB60" s="25"/>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A61" s="27"/>
       <c r="B61" s="22"/>
       <c r="L61" s="25"/>
@@ -3294,7 +3294,7 @@
       <c r="AQ61" s="22"/>
       <c r="BB61" s="25"/>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A62" s="27"/>
       <c r="B62" s="22"/>
       <c r="L62" s="38"/>
@@ -3312,7 +3312,7 @@
       <c r="AQ62" s="22"/>
       <c r="BB62" s="25"/>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A63" s="27"/>
       <c r="B63" s="22"/>
       <c r="L63" s="25"/>
@@ -3327,7 +3327,7 @@
       <c r="AQ63" s="22"/>
       <c r="BB63" s="25"/>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A64" s="27"/>
       <c r="B64" s="22"/>
       <c r="L64" s="25"/>
@@ -3344,7 +3344,7 @@
       <c r="AQ64" s="22"/>
       <c r="BB64" s="25"/>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A65" s="27"/>
       <c r="B65" s="22"/>
       <c r="L65" s="25"/>
@@ -3361,7 +3361,7 @@
       <c r="AQ65" s="22"/>
       <c r="BB65" s="25"/>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A66" s="27"/>
       <c r="B66" s="22"/>
       <c r="L66" s="25"/>
@@ -3375,12 +3375,12 @@
       <c r="AQ66" s="22"/>
       <c r="BB66" s="25"/>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A67" s="27"/>
       <c r="B67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P67" s="25"/>
       <c r="T67" s="6" t="s">
@@ -3392,18 +3392,18 @@
       <c r="AQ67" s="22"/>
       <c r="BB67" s="25"/>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A68" s="27"/>
       <c r="B68" s="22"/>
       <c r="L68" s="25"/>
       <c r="N68" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AP68" s="25"/>
       <c r="AQ68" s="22"/>
       <c r="BB68" s="25"/>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A69" s="27"/>
       <c r="B69" s="22"/>
       <c r="L69" s="25"/>
@@ -3411,7 +3411,7 @@
       <c r="AQ69" s="22"/>
       <c r="BB69" s="25"/>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A70" s="27"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -3424,8 +3424,8 @@
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
       <c r="L70" s="26"/>
-      <c r="M70" s="95" t="s">
-        <v>100</v>
+      <c r="M70" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
@@ -3459,7 +3459,7 @@
       <c r="AQ70" s="22"/>
       <c r="BB70" s="25"/>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A71" s="27">
         <v>2</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="BA71" s="18"/>
       <c r="BB71" s="19"/>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A72" s="28"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
@@ -3542,7 +3542,7 @@
       <c r="BA72" s="24"/>
       <c r="BB72" s="26"/>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -3598,7 +3598,7 @@
       <c r="BA73" s="14"/>
       <c r="BB73" s="15"/>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -3654,7 +3654,7 @@
       <c r="BA74" s="14"/>
       <c r="BB74" s="15"/>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -3710,7 +3710,7 @@
       <c r="BA75" s="14"/>
       <c r="BB75" s="15"/>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -3766,7 +3766,7 @@
       <c r="BA76" s="14"/>
       <c r="BB76" s="15"/>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A77" s="12"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -3822,7 +3822,7 @@
       <c r="BA77" s="14"/>
       <c r="BB77" s="15"/>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A78" s="12"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -3878,7 +3878,7 @@
       <c r="BA78" s="14"/>
       <c r="BB78" s="15"/>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A79" s="12"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -3934,7 +3934,7 @@
       <c r="BA79" s="14"/>
       <c r="BB79" s="15"/>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A80" s="12"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -3990,7 +3990,7 @@
       <c r="BA80" s="14"/>
       <c r="BB80" s="15"/>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -4046,7 +4046,7 @@
       <c r="BA81" s="14"/>
       <c r="BB81" s="15"/>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A82" s="12"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
@@ -4102,7 +4102,7 @@
       <c r="BA82" s="14"/>
       <c r="BB82" s="15"/>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A83" s="12"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14"/>
@@ -4158,7 +4158,7 @@
       <c r="BA83" s="14"/>
       <c r="BB83" s="15"/>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A84" s="12"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
@@ -4216,17 +4216,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="M8:Q8"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:BB2"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:BB3"/>
     <mergeCell ref="M2:AP2"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="M8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AV1">
@@ -4246,12 +4246,12 @@
       <selection activeCell="N4" sqref="N4:Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="2"/>
+    <col min="1" max="16384" width="2.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
@@ -4309,1350 +4309,1260 @@
       <c r="BA1" s="11"/>
       <c r="BB1" s="11"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="85" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="88" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="88" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="90"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="79">
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="75"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A3" s="76">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="91">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77">
         <v>45447</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" s="79">
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A4" s="76">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="79">
+      <c r="B4" s="76"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A5" s="76">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="79">
+      <c r="B5" s="76"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="92"/>
+      <c r="AR5" s="92"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="92"/>
+      <c r="AW5" s="92"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="92"/>
+      <c r="BB5" s="92"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A6" s="76">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+      <c r="B6" s="76"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="92"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="92"/>
+      <c r="BB6" s="92"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A7" s="76">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69"/>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="69"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="79">
+      <c r="B7" s="76"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="92"/>
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="92"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="92"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A8" s="76">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+      <c r="B8" s="76"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="92"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A9" s="76">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="69"/>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69"/>
-      <c r="BB9" s="69"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
+      <c r="B9" s="76"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="92"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A10" s="76">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
+      <c r="B10" s="76"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="92"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A11" s="76">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="79">
+      <c r="B11" s="76"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A12" s="76">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="79">
+      <c r="B12" s="76"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="92"/>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="92"/>
+      <c r="AV12" s="92"/>
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="92"/>
+      <c r="AY12" s="92"/>
+      <c r="AZ12" s="92"/>
+      <c r="BA12" s="92"/>
+      <c r="BB12" s="92"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A13" s="76">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" s="79">
+      <c r="B13" s="76"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A14" s="76">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="79">
+      <c r="B14" s="76"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="92"/>
+      <c r="AN14" s="92"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="92"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="92"/>
+      <c r="AS14" s="92"/>
+      <c r="AT14" s="92"/>
+      <c r="AU14" s="92"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="92"/>
+      <c r="AX14" s="92"/>
+      <c r="AY14" s="92"/>
+      <c r="AZ14" s="92"/>
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="92"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A15" s="76">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="79">
+      <c r="B15" s="76"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="92"/>
+      <c r="AN15" s="92"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="92"/>
+      <c r="AQ15" s="92"/>
+      <c r="AR15" s="92"/>
+      <c r="AS15" s="92"/>
+      <c r="AT15" s="92"/>
+      <c r="AU15" s="92"/>
+      <c r="AV15" s="92"/>
+      <c r="AW15" s="92"/>
+      <c r="AX15" s="92"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="92"/>
+      <c r="BA15" s="92"/>
+      <c r="BB15" s="92"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A16" s="76">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="79">
+      <c r="B16" s="76"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="92"/>
+      <c r="AW16" s="92"/>
+      <c r="AX16" s="92"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="92"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="92"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A17" s="76">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" s="79">
+      <c r="B17" s="76"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="92"/>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="92"/>
+      <c r="AP17" s="92"/>
+      <c r="AQ17" s="92"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="92"/>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="92"/>
+      <c r="AW17" s="92"/>
+      <c r="AX17" s="92"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="92"/>
+      <c r="BA17" s="92"/>
+      <c r="BB17" s="92"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A18" s="76">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="77"/>
-      <c r="AT18" s="77"/>
-      <c r="AU18" s="77"/>
-      <c r="AV18" s="77"/>
-      <c r="AW18" s="77"/>
-      <c r="AX18" s="77"/>
-      <c r="AY18" s="77"/>
-      <c r="AZ18" s="77"/>
-      <c r="BA18" s="77"/>
-      <c r="BB18" s="78"/>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A19" s="79">
+      <c r="B18" s="76"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="90"/>
+      <c r="BA18" s="90"/>
+      <c r="BB18" s="91"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A19" s="76">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="77"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="77"/>
-      <c r="AU19" s="77"/>
-      <c r="AV19" s="77"/>
-      <c r="AW19" s="77"/>
-      <c r="AX19" s="77"/>
-      <c r="AY19" s="77"/>
-      <c r="AZ19" s="77"/>
-      <c r="BA19" s="77"/>
-      <c r="BB19" s="78"/>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" s="79">
+      <c r="B19" s="76"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="90"/>
+      <c r="AM19" s="90"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90"/>
+      <c r="AX19" s="90"/>
+      <c r="AY19" s="90"/>
+      <c r="AZ19" s="90"/>
+      <c r="BA19" s="90"/>
+      <c r="BB19" s="91"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A20" s="76">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="77"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="77"/>
-      <c r="AZ20" s="77"/>
-      <c r="BA20" s="77"/>
-      <c r="BB20" s="78"/>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" s="79">
+      <c r="B20" s="76"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="90"/>
+      <c r="AZ20" s="90"/>
+      <c r="BA20" s="90"/>
+      <c r="BB20" s="91"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A21" s="76">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="77"/>
-      <c r="AK21" s="77"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="77"/>
-      <c r="AU21" s="77"/>
-      <c r="AV21" s="77"/>
-      <c r="AW21" s="77"/>
-      <c r="AX21" s="77"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="77"/>
-      <c r="BA21" s="77"/>
-      <c r="BB21" s="78"/>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+      <c r="B21" s="76"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="90"/>
+      <c r="BA21" s="90"/>
+      <c r="BB21" s="91"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A22" s="92">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="77"/>
-      <c r="AU22" s="77"/>
-      <c r="AV22" s="77"/>
-      <c r="AW22" s="77"/>
-      <c r="AX22" s="77"/>
-      <c r="AY22" s="77"/>
-      <c r="AZ22" s="77"/>
-      <c r="BA22" s="77"/>
-      <c r="BB22" s="78"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="90"/>
+      <c r="AK22" s="90"/>
+      <c r="AL22" s="90"/>
+      <c r="AM22" s="90"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="90"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="90"/>
+      <c r="BA22" s="90"/>
+      <c r="BB22" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -5668,6 +5578,96 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5676,26 +5676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -5890,32 +5870,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4595B-C56E-4600-9012-18E22E685E1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC924686-D250-4F9F-A2BB-B8679E3B2C6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7689BB-0157-468B-8917-E2954308028B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5932,4 +5907,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC924686-D250-4F9F-A2BB-B8679E3B2C6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4595B-C56E-4600-9012-18E22E685E1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
+++ b/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\02_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96291580-8BB2-498D-8746-E5151E692250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF896ADB-0362-4266-9013-05134F91E399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
+    <workbookView xWindow="-1932" yWindow="36" windowWidth="13092" windowHeight="12036" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
   <sheets>
     <sheet name="共通定義" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>詳細設計共通定義</t>
     <rPh sb="0" eb="4">
@@ -598,17 +598,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例）getWorkTimesTotal(String userName)</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>条件付き取得</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -687,6 +676,13 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例）findWorkTimesTotal(String userName)</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1203,6 +1199,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,57 +1280,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1323,25 +1297,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1979,9 +1975,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:CK84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC68" sqref="AC68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2083,14 +2079,14 @@
       <c r="CK1" s="1"/>
     </row>
     <row r="2" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2099,62 +2095,62 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="49" t="s">
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="51" t="s">
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="53"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="60"/>
     </row>
     <row r="3" spans="1:89" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2195,22 +2191,22 @@
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
       <c r="AP3" s="21"/>
-      <c r="AQ3" s="54" t="s">
+      <c r="AQ3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="57">
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="64">
         <v>45447</v>
       </c>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="59"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="66"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
@@ -2392,13 +2388,13 @@
       <c r="A8" s="27"/>
       <c r="B8" s="22"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="69"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
       <c r="AP8" s="25"/>
       <c r="AQ8" s="22"/>
       <c r="BB8" s="25"/>
@@ -2408,11 +2404,11 @@
       <c r="B9" s="22"/>
       <c r="L9" s="25"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="64" t="s">
+      <c r="P9" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="66"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
       <c r="S9" s="30"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
@@ -2426,13 +2422,13 @@
       <c r="L10" s="25"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="63" t="s">
+      <c r="Q10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
       <c r="AP10" s="25"/>
       <c r="AQ10" s="22"/>
       <c r="BB10" s="25"/>
@@ -2443,13 +2439,13 @@
       <c r="L11" s="25"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="63" t="s">
+      <c r="Q11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
       <c r="AP11" s="25"/>
       <c r="AQ11" s="22"/>
       <c r="BB11" s="25"/>
@@ -2458,11 +2454,11 @@
       <c r="A12" s="27"/>
       <c r="B12" s="22"/>
       <c r="L12" s="25"/>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
@@ -2552,7 +2548,7 @@
       <c r="B15" s="22"/>
       <c r="L15" s="25"/>
       <c r="M15" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AP15" s="25"/>
       <c r="AQ15" s="22"/>
@@ -2956,7 +2952,7 @@
         <v>14</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AP41" s="25"/>
       <c r="AQ41" s="22"/>
@@ -2999,10 +2995,10 @@
       <c r="L45" s="25"/>
       <c r="M45" s="22"/>
       <c r="N45" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AP45" s="25"/>
       <c r="AQ45" s="22"/>
@@ -3089,7 +3085,7 @@
       <c r="B48" s="22"/>
       <c r="L48" s="25"/>
       <c r="M48" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N48" s="39"/>
       <c r="AP48" s="25"/>
@@ -3333,7 +3329,7 @@
       <c r="L64" s="25"/>
       <c r="M64" s="22"/>
       <c r="N64" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T64" s="6" t="s">
         <v>85</v>
@@ -3380,14 +3376,11 @@
       <c r="B67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P67" s="25"/>
-      <c r="T67" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="AC67" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AQ67" s="22"/>
       <c r="BB67" s="25"/>
@@ -3397,7 +3390,7 @@
       <c r="B68" s="22"/>
       <c r="L68" s="25"/>
       <c r="N68" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AP68" s="25"/>
       <c r="AQ68" s="22"/>
@@ -3425,7 +3418,7 @@
       <c r="K70" s="24"/>
       <c r="L70" s="26"/>
       <c r="M70" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
@@ -4216,17 +4209,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="M8:Q8"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:BB2"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:BB3"/>
     <mergeCell ref="M2:AP2"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="M8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AV1">
@@ -4310,1259 +4303,1349 @@
       <c r="BB1" s="11"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="70" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="73" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="73" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="75"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="91"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="76">
+      <c r="A3" s="80">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77">
+      <c r="B3" s="80"/>
+      <c r="C3" s="92">
         <v>45447</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="80"/>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="80"/>
-      <c r="BA3" s="80"/>
-      <c r="BB3" s="80"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="95"/>
+      <c r="AR3" s="95"/>
+      <c r="AS3" s="95"/>
+      <c r="AT3" s="95"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="95"/>
+      <c r="AX3" s="95"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="95"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="76">
+      <c r="A4" s="80">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="76">
+      <c r="A5" s="80">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="81"/>
       <c r="D5" s="81"/>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="92"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="70"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="70"/>
+      <c r="AZ5" s="70"/>
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="70"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="76">
+      <c r="A6" s="80">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="92"/>
-      <c r="BA6" s="92"/>
-      <c r="BB6" s="92"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="70"/>
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="70"/>
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="70"/>
+      <c r="BA6" s="70"/>
+      <c r="BB6" s="70"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="76">
+      <c r="A7" s="80">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="92"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="70"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="76">
+      <c r="A8" s="80">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="81"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="92"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="76">
+      <c r="A9" s="80">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
       <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="92"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="92"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="92"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="70"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="76">
+      <c r="A10" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="92"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="70"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="70"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="76">
+      <c r="A11" s="80">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="70"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="76">
+      <c r="A12" s="80">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
       <c r="F12" s="81"/>
       <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="92"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="92"/>
-      <c r="AV12" s="92"/>
-      <c r="AW12" s="92"/>
-      <c r="AX12" s="92"/>
-      <c r="AY12" s="92"/>
-      <c r="AZ12" s="92"/>
-      <c r="BA12" s="92"/>
-      <c r="BB12" s="92"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="70"/>
+      <c r="AM12" s="70"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="70"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="76">
+      <c r="A13" s="80">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="92"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="76">
+      <c r="A14" s="80">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="92"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="92"/>
-      <c r="AN14" s="92"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="92"/>
-      <c r="AQ14" s="92"/>
-      <c r="AR14" s="92"/>
-      <c r="AS14" s="92"/>
-      <c r="AT14" s="92"/>
-      <c r="AU14" s="92"/>
-      <c r="AV14" s="92"/>
-      <c r="AW14" s="92"/>
-      <c r="AX14" s="92"/>
-      <c r="AY14" s="92"/>
-      <c r="AZ14" s="92"/>
-      <c r="BA14" s="92"/>
-      <c r="BB14" s="92"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="70"/>
+      <c r="AN14" s="70"/>
+      <c r="AO14" s="70"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="70"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="70"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="76">
+      <c r="A15" s="80">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="92"/>
-      <c r="AN15" s="92"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="92"/>
-      <c r="AQ15" s="92"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="92"/>
-      <c r="AT15" s="92"/>
-      <c r="AU15" s="92"/>
-      <c r="AV15" s="92"/>
-      <c r="AW15" s="92"/>
-      <c r="AX15" s="92"/>
-      <c r="AY15" s="92"/>
-      <c r="AZ15" s="92"/>
-      <c r="BA15" s="92"/>
-      <c r="BB15" s="92"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="70"/>
+      <c r="AP15" s="70"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="76">
+      <c r="A16" s="80">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="81"/>
       <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="92"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="92"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="92"/>
-      <c r="AQ16" s="92"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="92"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="92"/>
-      <c r="AW16" s="92"/>
-      <c r="AX16" s="92"/>
-      <c r="AY16" s="92"/>
-      <c r="AZ16" s="92"/>
-      <c r="BA16" s="92"/>
-      <c r="BB16" s="92"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="76">
+      <c r="A17" s="80">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="92"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="92"/>
-      <c r="AL17" s="92"/>
-      <c r="AM17" s="92"/>
-      <c r="AN17" s="92"/>
-      <c r="AO17" s="92"/>
-      <c r="AP17" s="92"/>
-      <c r="AQ17" s="92"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="92"/>
-      <c r="AT17" s="92"/>
-      <c r="AU17" s="92"/>
-      <c r="AV17" s="92"/>
-      <c r="AW17" s="92"/>
-      <c r="AX17" s="92"/>
-      <c r="AY17" s="92"/>
-      <c r="AZ17" s="92"/>
-      <c r="BA17" s="92"/>
-      <c r="BB17" s="92"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="70"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="76">
+      <c r="A18" s="80">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="90"/>
-      <c r="AL18" s="90"/>
-      <c r="AM18" s="90"/>
-      <c r="AN18" s="90"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="90"/>
-      <c r="AQ18" s="90"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="90"/>
-      <c r="AT18" s="90"/>
-      <c r="AU18" s="90"/>
-      <c r="AV18" s="90"/>
-      <c r="AW18" s="90"/>
-      <c r="AX18" s="90"/>
-      <c r="AY18" s="90"/>
-      <c r="AZ18" s="90"/>
-      <c r="BA18" s="90"/>
-      <c r="BB18" s="91"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="78"/>
+      <c r="AP18" s="78"/>
+      <c r="AQ18" s="78"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="78"/>
+      <c r="AW18" s="78"/>
+      <c r="AX18" s="78"/>
+      <c r="AY18" s="78"/>
+      <c r="AZ18" s="78"/>
+      <c r="BA18" s="78"/>
+      <c r="BB18" s="79"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="76">
+      <c r="A19" s="80">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="90"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="90"/>
-      <c r="AO19" s="90"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="90"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="90"/>
-      <c r="AU19" s="90"/>
-      <c r="AV19" s="90"/>
-      <c r="AW19" s="90"/>
-      <c r="AX19" s="90"/>
-      <c r="AY19" s="90"/>
-      <c r="AZ19" s="90"/>
-      <c r="BA19" s="90"/>
-      <c r="BB19" s="91"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="78"/>
+      <c r="BA19" s="78"/>
+      <c r="BB19" s="79"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="76">
+      <c r="A20" s="80">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="90"/>
-      <c r="AL20" s="90"/>
-      <c r="AM20" s="90"/>
-      <c r="AN20" s="90"/>
-      <c r="AO20" s="90"/>
-      <c r="AP20" s="90"/>
-      <c r="AQ20" s="90"/>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="90"/>
-      <c r="AT20" s="90"/>
-      <c r="AU20" s="90"/>
-      <c r="AV20" s="90"/>
-      <c r="AW20" s="90"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="90"/>
-      <c r="AZ20" s="90"/>
-      <c r="BA20" s="90"/>
-      <c r="BB20" s="91"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="78"/>
+      <c r="AY20" s="78"/>
+      <c r="AZ20" s="78"/>
+      <c r="BA20" s="78"/>
+      <c r="BB20" s="79"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="76">
+      <c r="A21" s="80">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="90"/>
-      <c r="AL21" s="90"/>
-      <c r="AM21" s="90"/>
-      <c r="AN21" s="90"/>
-      <c r="AO21" s="90"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="90"/>
-      <c r="AR21" s="90"/>
-      <c r="AS21" s="90"/>
-      <c r="AT21" s="90"/>
-      <c r="AU21" s="90"/>
-      <c r="AV21" s="90"/>
-      <c r="AW21" s="90"/>
-      <c r="AX21" s="90"/>
-      <c r="AY21" s="90"/>
-      <c r="AZ21" s="90"/>
-      <c r="BA21" s="90"/>
-      <c r="BB21" s="91"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="78"/>
+      <c r="AZ21" s="78"/>
+      <c r="BA21" s="78"/>
+      <c r="BB21" s="79"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="92">
+      <c r="A22" s="70">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="90"/>
-      <c r="AK22" s="90"/>
-      <c r="AL22" s="90"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="90"/>
-      <c r="AR22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AT22" s="90"/>
-      <c r="AU22" s="90"/>
-      <c r="AV22" s="90"/>
-      <c r="AW22" s="90"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="90"/>
-      <c r="AZ22" s="90"/>
-      <c r="BA22" s="90"/>
-      <c r="BB22" s="91"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="78"/>
+      <c r="AX22" s="78"/>
+      <c r="AY22" s="78"/>
+      <c r="AZ22" s="78"/>
+      <c r="BA22" s="78"/>
+      <c r="BB22" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -5578,96 +5661,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5676,6 +5669,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -5870,27 +5883,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4595B-C56E-4600-9012-18E22E685E1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC924686-D250-4F9F-A2BB-B8679E3B2C6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7689BB-0157-468B-8917-E2954308028B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5907,29 +5925,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC924686-D250-4F9F-A2BB-B8679E3B2C6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4595B-C56E-4600-9012-18E22E685E1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
+++ b/設計書_打刻侍/30_詳細設計/02_詳細設計書/詳細設計共通定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\02_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF896ADB-0362-4266-9013-05134F91E399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F75EE2-FBC2-4C75-B36D-1659A121F37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1932" yWindow="36" windowWidth="13092" windowHeight="12036" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>詳細設計共通定義</t>
     <rPh sb="0" eb="4">
@@ -683,6 +683,16 @@
     <t>例）findWorkTimesTotal(String userName)</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>find + By + 条件　（属性）</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゾクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1977,7 +1987,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC68" sqref="AC68"/>
+      <selection pane="bottomLeft" activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3379,6 +3389,9 @@
         <v>95</v>
       </c>
       <c r="P67" s="25"/>
+      <c r="T67" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="AC67" s="6" t="s">
         <v>99</v>
       </c>
